--- a/doc/onderneming/begroting.xlsx
+++ b/doc/onderneming/begroting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
   </si>
   <si>
     <t>Aantal maanden</t>
@@ -2215,7 +2218,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G46"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2224,8 +2227,8 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="29.0859" style="24" customWidth="1"/>
-    <col min="2" max="7" width="16.3516" style="24" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="24" customWidth="1"/>
+    <col min="2" max="8" width="16.3516" style="24" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2238,6 +2241,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="25"/>
@@ -2259,10 +2263,13 @@
       <c r="G2" t="s" s="26">
         <v>35</v>
       </c>
+      <c r="H2" t="s" s="26">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" t="s" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="28">
         <v>3</v>
@@ -2280,6 +2287,9 @@
         <v>3</v>
       </c>
       <c r="G3" s="29">
+        <v>3</v>
+      </c>
+      <c r="H3" s="29">
         <v>3</v>
       </c>
     </row>
@@ -2291,10 +2301,11 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" ht="21" customHeight="1">
       <c r="A5" t="s" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="34">
         <v>3</v>
@@ -2314,10 +2325,13 @@
       <c r="G5" s="35">
         <v>125</v>
       </c>
+      <c r="H5" s="35">
+        <v>175</v>
+      </c>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" t="s" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="34">
         <v>4</v>
@@ -2337,10 +2351,13 @@
       <c r="G6" s="35">
         <v>4</v>
       </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" t="s" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="34">
         <f>B5*B6</f>
@@ -2366,10 +2383,14 @@
         <f>G5*G6</f>
         <v>500</v>
       </c>
+      <c r="H7" s="35">
+        <f>H5*H6</f>
+        <v>700</v>
+      </c>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="34">
         <v>0</v>
@@ -2394,10 +2415,14 @@
         <f>G7-F7</f>
         <v>180</v>
       </c>
+      <c r="H8" s="35">
+        <f>H7-G7</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="36">
         <f>B7*'Prijsmodel - Prijsmodel op basi'!B15*B3</f>
@@ -2422,6 +2447,10 @@
       <c r="G9" s="37">
         <f>(F7+G8/2)*'Prijsmodel - Prijsmodel op basi'!B15*G3</f>
         <v>43050</v>
+      </c>
+      <c r="H9" s="37">
+        <f>(G7+H8/2)*'Prijsmodel - Prijsmodel op basi'!B15*H3</f>
+        <v>63000</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1">
@@ -2432,10 +2461,11 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="34">
         <v>0</v>
@@ -2455,10 +2485,13 @@
       <c r="G11" s="35">
         <v>80</v>
       </c>
+      <c r="H11" s="35">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="34">
         <v>0</v>
@@ -2478,10 +2511,13 @@
       <c r="G12" s="35">
         <v>6</v>
       </c>
+      <c r="H12" s="35">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="34">
         <f>B11*B12</f>
@@ -2507,10 +2543,14 @@
         <f>G11*G12</f>
         <v>480</v>
       </c>
+      <c r="H13" s="35">
+        <f>H11*H12</f>
+        <v>720</v>
+      </c>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="34">
         <v>0</v>
@@ -2535,10 +2575,14 @@
         <f>G13-F13</f>
         <v>230</v>
       </c>
+      <c r="H14" s="35">
+        <f>H13-G13</f>
+        <v>240</v>
+      </c>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="36">
         <f>B13*'Prijsmodel - Prijsmodel op basi'!B5*B3</f>
@@ -2563,6 +2607,10 @@
       <c r="G15" s="37">
         <f>(F13+G14/2)*'Prijsmodel - Prijsmodel op basi'!B5*G3</f>
         <v>82125</v>
+      </c>
+      <c r="H15" s="37">
+        <f>(G13+H14/2)*'Prijsmodel - Prijsmodel op basi'!B5*H3</f>
+        <v>135000</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1">
@@ -2573,10 +2621,11 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" ht="20.7" customHeight="1">
       <c r="A17" t="s" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="40">
         <f>B9+B15</f>
@@ -2602,10 +2651,14 @@
         <f>G9+G15</f>
         <v>125175</v>
       </c>
+      <c r="H17" s="41">
+        <f>H9+H15</f>
+        <v>198000</v>
+      </c>
     </row>
     <row r="18" ht="20.7" customHeight="1">
       <c r="A18" t="s" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="42">
         <f>B17*'Prijsmodel - Prijsmodel op basi'!B23*'Prijsmodel - Prijsmodel op basi'!B24</f>
@@ -2631,10 +2684,14 @@
         <f>G17*'Prijsmodel - Prijsmodel op basi'!B23*'Prijsmodel - Prijsmodel op basi'!B24</f>
         <v>32858.4375</v>
       </c>
+      <c r="H18" s="43">
+        <f>H17*'Prijsmodel - Prijsmodel op basi'!B23*'Prijsmodel - Prijsmodel op basi'!B24</f>
+        <v>51975</v>
+      </c>
     </row>
     <row r="19" ht="20.7" customHeight="1">
       <c r="A19" t="s" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="44">
         <f>B17-B18</f>
@@ -2659,6 +2716,10 @@
       <c r="G19" s="45">
         <f>G17-G18</f>
         <v>92316.5625</v>
+      </c>
+      <c r="H19" s="45">
+        <f>H17-H18</f>
+        <v>146025</v>
       </c>
     </row>
     <row r="20" ht="20.7" customHeight="1">
@@ -2669,10 +2730,11 @@
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" ht="20.7" customHeight="1">
       <c r="A21" t="s" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="46">
         <v>2</v>
@@ -2692,10 +2754,13 @@
       <c r="G21" s="47">
         <v>2</v>
       </c>
+      <c r="H21" s="47">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" ht="20.7" customHeight="1">
       <c r="A22" t="s" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="48">
         <v>4500</v>
@@ -2715,10 +2780,13 @@
       <c r="G22" s="49">
         <v>4500</v>
       </c>
+      <c r="H22" s="49">
+        <v>4500</v>
+      </c>
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="50">
         <v>0</v>
@@ -2738,10 +2806,13 @@
       <c r="G23" s="51">
         <v>1</v>
       </c>
+      <c r="H23" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="52">
         <v>8000</v>
@@ -2766,10 +2837,14 @@
         <f>B24</f>
         <v>8000</v>
       </c>
+      <c r="H24" s="53">
+        <f>C24</f>
+        <v>8000</v>
+      </c>
     </row>
     <row r="25" ht="20.7" customHeight="1">
       <c r="A25" t="s" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="54">
         <v>0</v>
@@ -2789,10 +2864,13 @@
       <c r="G25" s="55">
         <v>2</v>
       </c>
+      <c r="H25" s="55">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="52">
         <v>6000</v>
@@ -2815,6 +2893,10 @@
       </c>
       <c r="G26" s="53">
         <f>B26</f>
+        <v>6000</v>
+      </c>
+      <c r="H26" s="53">
+        <f>C26</f>
         <v>6000</v>
       </c>
     </row>
@@ -2826,10 +2908,11 @@
       <c r="E27" s="49"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" ht="20.7" customHeight="1">
       <c r="A28" t="s" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="48">
         <f>(B21*B22+B23*B24+B25*B26)*B3</f>
@@ -2855,10 +2938,14 @@
         <f>(G21*G22+G23*G24+G25*G26)*G3</f>
         <v>87000</v>
       </c>
+      <c r="H28" s="49">
+        <f>(H21*H22+H23*H24+H25*H26)*H3</f>
+        <v>87000</v>
+      </c>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="48">
         <v>10000</v>
@@ -2875,13 +2962,16 @@
       <c r="F29" s="57">
         <v>10000</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="57">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="48">
         <v>10000</v>
       </c>
     </row>
     <row r="30" ht="20.7" customHeight="1">
       <c r="A30" t="s" s="33">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="48">
         <v>0</v>
@@ -2901,10 +2991,13 @@
       <c r="G30" s="58">
         <v>12000</v>
       </c>
+      <c r="H30" s="58">
+        <v>12000</v>
+      </c>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="60">
         <f>SUM(B28:B30)</f>
@@ -2928,6 +3021,10 @@
       </c>
       <c r="G31" s="61">
         <f>SUM(G28:G30)</f>
+        <v>109000</v>
+      </c>
+      <c r="H31" s="61">
+        <f>SUM(H28:H30)</f>
         <v>109000</v>
       </c>
     </row>
@@ -2939,10 +3036,11 @@
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="59">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="62">
         <f>B19-B31</f>
@@ -2968,10 +3066,14 @@
         <f>G19-G31</f>
         <v>-16683.4375</v>
       </c>
+      <c r="H33" s="63">
+        <f>H19-H31</f>
+        <v>37025</v>
+      </c>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="62">
         <f>SUMIF(B33:G33,"&lt;0",B33:G33)</f>
@@ -2982,6 +3084,7 @@
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
       <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" ht="20.7" customHeight="1">
       <c r="A35" s="30"/>
@@ -2991,6 +3094,7 @@
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" ht="20.7" customHeight="1">
       <c r="A36" s="64"/>
@@ -3000,6 +3104,7 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" s="33"/>
@@ -3009,6 +3114,7 @@
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" s="33"/>
@@ -3018,6 +3124,7 @@
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" ht="20.7" customHeight="1">
       <c r="A39" s="30"/>
@@ -3027,6 +3134,7 @@
       <c r="E39" s="58"/>
       <c r="F39" s="58"/>
       <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" ht="20.7" customHeight="1">
       <c r="A40" s="33"/>
@@ -3036,6 +3144,7 @@
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" ht="20.7" customHeight="1">
       <c r="A41" s="33"/>
@@ -3045,6 +3154,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" s="30"/>
@@ -3054,6 +3164,7 @@
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
       <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" s="33"/>
@@ -3063,6 +3174,7 @@
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
       <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" s="33"/>
@@ -3072,6 +3184,7 @@
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" ht="20.7" customHeight="1">
       <c r="A45" s="30"/>
@@ -3081,6 +3194,7 @@
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" s="30"/>
@@ -3090,10 +3204,11 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/doc/onderneming/begroting.xlsx
+++ b/doc/onderneming/begroting.xlsx
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="11">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="13"/>
@@ -3507,55 +3507,55 @@
       </c>
       <c r="K17" s="40">
         <f>(J15+K16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>1650</v>
+        <v>2250</v>
       </c>
       <c r="L17" s="40">
         <f>(K15+L16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>3685</v>
+        <v>5025</v>
       </c>
       <c r="M17" s="40">
         <f>(L15+M16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>4345</v>
+        <v>5925</v>
       </c>
       <c r="N17" s="40">
         <f>(M15+N16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>5747.5</v>
+        <v>7837.5</v>
       </c>
       <c r="O17" s="40">
         <f>(N15+O16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>7562.5</v>
+        <v>10312.5</v>
       </c>
       <c r="P17" s="40">
         <f>(O15+P16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>8937.5</v>
+        <v>12187.5</v>
       </c>
       <c r="Q17" s="40">
         <f>(P15+Q16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>10312.5</v>
+        <v>14062.5</v>
       </c>
       <c r="R17" s="40">
         <f>(Q15+R16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>13337.5</v>
+        <v>18187.5</v>
       </c>
       <c r="S17" s="40">
         <f>(R15+S16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>18425</v>
+        <v>25125</v>
       </c>
       <c r="T17" s="40">
         <f>(S15+T16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>22618.75</v>
+        <v>30843.75</v>
       </c>
       <c r="U17" s="40">
         <f>(T15+U16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>25506.25</v>
+        <v>34781.25</v>
       </c>
       <c r="V17" s="40">
         <f>(U15+V16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>28393.75</v>
+        <v>38718.75</v>
       </c>
       <c r="W17" s="40">
         <f>(V15+W16/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>31281.25</v>
+        <v>42656.25</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1">
@@ -3625,55 +3625,55 @@
       </c>
       <c r="K19" s="38">
         <f>K11+K17</f>
-        <v>4520</v>
+        <v>5120</v>
       </c>
       <c r="L19" s="38">
         <f>L11+L17</f>
-        <v>6030</v>
+        <v>7370</v>
       </c>
       <c r="M19" s="38">
         <f>M11+M17</f>
-        <v>7110</v>
+        <v>8690</v>
       </c>
       <c r="N19" s="38">
         <f>N11+N17</f>
-        <v>8967.5</v>
+        <v>11057.5</v>
       </c>
       <c r="O19" s="38">
         <f>O11+O17</f>
-        <v>11412.5</v>
+        <v>14162.5</v>
       </c>
       <c r="P19" s="38">
         <f>P11+P17</f>
-        <v>13487.5</v>
+        <v>16737.5</v>
       </c>
       <c r="Q19" s="38">
         <f>Q11+Q17</f>
-        <v>15562.5</v>
+        <v>19312.5</v>
       </c>
       <c r="R19" s="38">
         <f>R11+R17</f>
-        <v>19462.5</v>
+        <v>24312.5</v>
       </c>
       <c r="S19" s="38">
         <f>S11+S17</f>
-        <v>25600</v>
+        <v>32300</v>
       </c>
       <c r="T19" s="38">
         <f>T11+T17</f>
-        <v>30843.75</v>
+        <v>39068.75</v>
       </c>
       <c r="U19" s="38">
         <f>U11+U17</f>
-        <v>34781.25</v>
+        <v>44056.25</v>
       </c>
       <c r="V19" s="38">
         <f>V11+V17</f>
-        <v>38718.75</v>
+        <v>49043.75</v>
       </c>
       <c r="W19" s="38">
         <f>W11+W17</f>
-        <v>42656.25</v>
+        <v>54031.25</v>
       </c>
     </row>
     <row r="20" ht="19.95" customHeight="1">
@@ -3789,55 +3789,55 @@
       </c>
       <c r="K21" s="25">
         <f>K19-K20</f>
-        <v>4520</v>
+        <v>5120</v>
       </c>
       <c r="L21" s="25">
         <f>L19-L20</f>
-        <v>6030</v>
+        <v>7370</v>
       </c>
       <c r="M21" s="25">
         <f>M19-M20</f>
-        <v>7110</v>
+        <v>8690</v>
       </c>
       <c r="N21" s="25">
         <f>N19-N20</f>
-        <v>8967.5</v>
+        <v>11057.5</v>
       </c>
       <c r="O21" s="25">
         <f>O19-O20</f>
-        <v>11412.5</v>
+        <v>14162.5</v>
       </c>
       <c r="P21" s="25">
         <f>P19-P20</f>
-        <v>13487.5</v>
+        <v>16737.5</v>
       </c>
       <c r="Q21" s="25">
         <f>Q19-Q20</f>
-        <v>15562.5</v>
+        <v>19312.5</v>
       </c>
       <c r="R21" s="25">
         <f>R19-R20</f>
-        <v>19462.5</v>
+        <v>24312.5</v>
       </c>
       <c r="S21" s="25">
         <f>S19-S20</f>
-        <v>25600</v>
+        <v>32300</v>
       </c>
       <c r="T21" s="25">
         <f>T19-T20</f>
-        <v>30843.75</v>
+        <v>39068.75</v>
       </c>
       <c r="U21" s="25">
         <f>U19-U20</f>
-        <v>34781.25</v>
+        <v>44056.25</v>
       </c>
       <c r="V21" s="25">
         <f>V19-V20</f>
-        <v>38718.75</v>
+        <v>49043.75</v>
       </c>
       <c r="W21" s="25">
         <f>W19-W20</f>
-        <v>42656.25</v>
+        <v>54031.25</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1">
@@ -5355,51 +5355,51 @@
       </c>
       <c r="L45" s="38">
         <f>IF(K58&lt;0,ABS(K58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>974.8657268852006</v>
+        <v>968.2107268852005</v>
       </c>
       <c r="M45" s="38">
         <f>IF(L58&lt;0,ABS(L58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1146.085912714982</v>
+        <v>1124.507075214982</v>
       </c>
       <c r="N45" s="38">
         <f>IF(M58&lt;0,ABS(M58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1306.896616914869</v>
+        <v>1267.595140071119</v>
       </c>
       <c r="O45" s="38">
         <f>IF(N58&lt;0,ABS(N58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1409.424148403255</v>
+        <v>1353.356824688438</v>
       </c>
       <c r="P45" s="38">
         <f>IF(O58&lt;0,ABS(O58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1525.843557263618</v>
+        <v>1438.760199748082</v>
       </c>
       <c r="Q45" s="38">
         <f>IF(P58&lt;0,ABS(P58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1665.964935705201</v>
+        <v>1542.035397412439</v>
       </c>
       <c r="R45" s="38">
         <f>IF(Q58&lt;0,ABS(Q58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1866.692155949166</v>
+        <v>1715.606096888720</v>
       </c>
       <c r="S45" s="38">
         <f>IF(R58&lt;0,ABS(R58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1972.265271545367</v>
+        <v>1765.9996736102</v>
       </c>
       <c r="T45" s="38">
         <f>IF(S58&lt;0,ABS(S58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>2010.731036534532</v>
+        <v>1728.260503951627</v>
       </c>
       <c r="U45" s="38">
         <f>IF(T58&lt;0,ABS(T58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>2034.940602286099</v>
+        <v>1688.104298154516</v>
       </c>
       <c r="V45" s="38">
         <f>IF(U58&lt;0,ABS(U58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1972.145526557055</v>
+        <v>1519.254681304266</v>
       </c>
       <c r="W45" s="38">
         <f>IF(V58&lt;0,ABS(V58*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1865.101391800495</v>
+        <v>1293.537588799555</v>
       </c>
     </row>
     <row r="46" ht="19.95" customHeight="1">
@@ -5519,51 +5519,51 @@
       </c>
       <c r="L47" s="48">
         <f>SUM(L38:L46)</f>
-        <v>2874.865726885201</v>
+        <v>2868.210726885201</v>
       </c>
       <c r="M47" s="48">
         <f>SUM(M38:M46)</f>
-        <v>3046.085912714982</v>
+        <v>3024.507075214981</v>
       </c>
       <c r="N47" s="48">
         <f>SUM(N38:N46)</f>
-        <v>3206.896616914869</v>
+        <v>3167.595140071119</v>
       </c>
       <c r="O47" s="48">
         <f>SUM(O38:O46)</f>
-        <v>3409.424148403255</v>
+        <v>3353.356824688438</v>
       </c>
       <c r="P47" s="48">
         <f>SUM(P38:P46)</f>
-        <v>7875.843557263618</v>
+        <v>7788.760199748082</v>
       </c>
       <c r="Q47" s="48">
         <f>SUM(Q38:Q46)</f>
-        <v>4765.964935705201</v>
+        <v>4642.035397412439</v>
       </c>
       <c r="R47" s="48">
         <f>SUM(R38:R46)</f>
-        <v>4966.692155949166</v>
+        <v>4815.606096888720</v>
       </c>
       <c r="S47" s="48">
         <f>SUM(S38:S46)</f>
-        <v>5072.265271545367</v>
+        <v>4865.999673610199</v>
       </c>
       <c r="T47" s="48">
         <f>SUM(T38:T46)</f>
-        <v>5110.731036534532</v>
+        <v>4828.260503951627</v>
       </c>
       <c r="U47" s="48">
         <f>SUM(U38:U46)</f>
-        <v>5134.940602286099</v>
+        <v>4788.104298154516</v>
       </c>
       <c r="V47" s="48">
         <f>SUM(V38:V46)</f>
-        <v>5072.145526557055</v>
+        <v>4619.254681304266</v>
       </c>
       <c r="W47" s="48">
         <f>SUM(W38:W46)</f>
-        <v>4965.101391800495</v>
+        <v>4393.537588799555</v>
       </c>
     </row>
     <row r="48" ht="19.95" customHeight="1">
@@ -5660,55 +5660,55 @@
       </c>
       <c r="K50" s="38">
         <f>K19*0.21</f>
-        <v>949.1999999999999</v>
+        <v>1075.2</v>
       </c>
       <c r="L50" s="38">
         <f>L19*0.21</f>
-        <v>1266.3</v>
+        <v>1547.7</v>
       </c>
       <c r="M50" s="38">
         <f>M19*0.21</f>
-        <v>1493.1</v>
+        <v>1824.9</v>
       </c>
       <c r="N50" s="38">
         <f>N19*0.21</f>
-        <v>1883.175</v>
+        <v>2322.075</v>
       </c>
       <c r="O50" s="38">
         <f>O19*0.21</f>
-        <v>2396.625</v>
+        <v>2974.125</v>
       </c>
       <c r="P50" s="38">
         <f>P19*0.21</f>
-        <v>2832.375</v>
+        <v>3514.875</v>
       </c>
       <c r="Q50" s="38">
         <f>Q19*0.21</f>
-        <v>3268.125</v>
+        <v>4055.625</v>
       </c>
       <c r="R50" s="38">
         <f>R19*0.21</f>
-        <v>4087.125</v>
+        <v>5105.625</v>
       </c>
       <c r="S50" s="38">
         <f>S19*0.21</f>
-        <v>5376</v>
+        <v>6783</v>
       </c>
       <c r="T50" s="38">
         <f>T19*0.21</f>
-        <v>6477.1875</v>
+        <v>8204.4375</v>
       </c>
       <c r="U50" s="38">
         <f>U19*0.21</f>
-        <v>7304.0625</v>
+        <v>9251.8125</v>
       </c>
       <c r="V50" s="38">
         <f>V19*0.21</f>
-        <v>8130.9375</v>
+        <v>10299.1875</v>
       </c>
       <c r="W50" s="38">
         <f>W19*0.21</f>
-        <v>8957.8125</v>
+        <v>11346.5625</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1">
@@ -6032,55 +6032,55 @@
       </c>
       <c r="K54" s="25">
         <f>K50-SUM(K51:K53)</f>
-        <v>-2830.8</v>
+        <v>-2704.8</v>
       </c>
       <c r="L54" s="25">
         <f>L50-SUM(L51:L53)</f>
-        <v>-833.7</v>
+        <v>-552.3</v>
       </c>
       <c r="M54" s="25">
         <f>M50-SUM(M51:M53)</f>
-        <v>-606.9000000000001</v>
+        <v>-275.1000000000001</v>
       </c>
       <c r="N54" s="25">
         <f>N50-SUM(N51:N53)</f>
-        <v>-216.825</v>
+        <v>222.0749999999998</v>
       </c>
       <c r="O54" s="25">
         <f>O50-SUM(O51:O53)</f>
-        <v>296.625</v>
+        <v>874.125</v>
       </c>
       <c r="P54" s="25">
         <f>P50-SUM(P51:P53)</f>
-        <v>102.375</v>
+        <v>784.875</v>
       </c>
       <c r="Q54" s="25">
         <f>Q50-SUM(Q51:Q53)</f>
-        <v>-511.875</v>
+        <v>275.625</v>
       </c>
       <c r="R54" s="25">
         <f>R50-SUM(R51:R53)</f>
-        <v>1987.125</v>
+        <v>3005.625</v>
       </c>
       <c r="S54" s="25">
         <f>S50-SUM(S51:S53)</f>
-        <v>3276</v>
+        <v>4683</v>
       </c>
       <c r="T54" s="25">
         <f>T50-SUM(T51:T53)</f>
-        <v>4377.1875</v>
+        <v>6104.4375</v>
       </c>
       <c r="U54" s="25">
         <f>U50-SUM(U51:U53)</f>
-        <v>5204.0625</v>
+        <v>7151.8125</v>
       </c>
       <c r="V54" s="25">
         <f>V50-SUM(V51:V53)</f>
-        <v>6030.9375</v>
+        <v>8199.1875</v>
       </c>
       <c r="W54" s="25">
         <f>W50-SUM(W51:W53)</f>
-        <v>6857.8125</v>
+        <v>9246.5625</v>
       </c>
     </row>
     <row r="55" ht="19.95" customHeight="1">
@@ -6110,25 +6110,25 @@
       <c r="M55" s="38"/>
       <c r="N55" s="38">
         <f>SUM(K54:M54)</f>
-        <v>-4271.4</v>
+        <v>-3532.200000000001</v>
       </c>
       <c r="O55" s="38"/>
       <c r="P55" s="38"/>
       <c r="Q55" s="38">
         <f>SUM(N54:P54)</f>
-        <v>182.175</v>
+        <v>1881.075</v>
       </c>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
       <c r="T55" s="38">
         <f>SUM(Q54:S54)</f>
-        <v>4751.25</v>
+        <v>7964.25</v>
       </c>
       <c r="U55" s="38"/>
       <c r="V55" s="38"/>
       <c r="W55" s="38">
         <f>SUM(T54:V54)</f>
-        <v>15612.1875</v>
+        <v>21455.4375</v>
       </c>
     </row>
     <row r="56" ht="19.95" customHeight="1">
@@ -6198,55 +6198,55 @@
       </c>
       <c r="K57" s="48">
         <f>K21+K54-K47-K35-K30-K55</f>
-        <v>-19222.261661653378</v>
+        <v>-18496.261661653378</v>
       </c>
       <c r="L57" s="48">
         <f>L21+L54-L47-L35-L30-L55</f>
-        <v>-18678.5657268852</v>
+        <v>-17050.5107268852</v>
       </c>
       <c r="M57" s="48">
         <f>M21+M54-M47-M35-M30-M55</f>
-        <v>-17542.985912714983</v>
+        <v>-15609.607075214983</v>
       </c>
       <c r="N57" s="48">
         <f>N21+N54-N47-N35-N30-N55</f>
-        <v>-11184.821616914871</v>
+        <v>-9355.820140071119</v>
       </c>
       <c r="O57" s="48">
         <f>O21+O54-O47-O35-O30-O55</f>
-        <v>-12700.299148403255</v>
+        <v>-9316.731824688439</v>
       </c>
       <c r="P57" s="48">
         <f>P21+P54-P47-P35-P30-P55</f>
-        <v>-15285.968557263619</v>
+        <v>-11266.385199748082</v>
       </c>
       <c r="Q57" s="48">
         <f>Q21+Q54-Q47-Q35-Q30-Q55</f>
-        <v>-21897.5149357052</v>
+        <v>-18934.985397412438</v>
       </c>
       <c r="R57" s="48">
         <f>R21+R54-R47-R35-R30-R55</f>
-        <v>-11517.067155949167</v>
+        <v>-5497.481096888718</v>
       </c>
       <c r="S57" s="48">
         <f>S21+S54-S47-S35-S30-S55</f>
-        <v>-4196.265271545366</v>
+        <v>4117.0003263898</v>
       </c>
       <c r="T57" s="48">
         <f>T21+T54-T47-T35-T30-T55</f>
-        <v>-2641.043536534533</v>
+        <v>4380.676996048373</v>
       </c>
       <c r="U57" s="48">
         <f>U21+U54-U47-U35-U30-U55</f>
-        <v>6850.3718977139</v>
+        <v>18419.958201845482</v>
       </c>
       <c r="V57" s="48">
         <f>V21+V54-V47-V35-V30-V55</f>
-        <v>11677.541973442945</v>
+        <v>24623.682818695735</v>
       </c>
       <c r="W57" s="48">
         <f>W21+W54-W47-W35-W30-W55</f>
-        <v>936.7736081995026</v>
+        <v>9428.837411200446</v>
       </c>
     </row>
     <row r="58" ht="20.25" customHeight="1">
@@ -6290,55 +6290,55 @@
       </c>
       <c r="K58" s="48">
         <f>J58+K57</f>
-        <v>-106348.9883874764</v>
+        <v>-105622.9883874764</v>
       </c>
       <c r="L58" s="48">
         <f>K58+L57</f>
-        <v>-125027.5541143616</v>
+        <v>-122673.4991143616</v>
       </c>
       <c r="M58" s="48">
         <f>L58+M57</f>
-        <v>-142570.5400270766</v>
+        <v>-138283.1061895766</v>
       </c>
       <c r="N58" s="48">
         <f>M58+N57</f>
-        <v>-153755.3616439915</v>
+        <v>-147638.9263296477</v>
       </c>
       <c r="O58" s="48">
         <f>N58+O57</f>
-        <v>-166455.6607923947</v>
+        <v>-156955.6581543362</v>
       </c>
       <c r="P58" s="48">
         <f>O58+P57</f>
-        <v>-181741.6293496584</v>
+        <v>-168222.0433540842</v>
       </c>
       <c r="Q58" s="48">
         <f>P58+Q57</f>
-        <v>-203639.1442853636</v>
+        <v>-187157.0287514967</v>
       </c>
       <c r="R58" s="48">
         <f>Q58+R57</f>
-        <v>-215156.2114413127</v>
+        <v>-192654.5098483854</v>
       </c>
       <c r="S58" s="48">
         <f>R58+S57</f>
-        <v>-219352.4767128581</v>
+        <v>-188537.5095219956</v>
       </c>
       <c r="T58" s="48">
         <f>S58+T57</f>
-        <v>-221993.5202493926</v>
+        <v>-184156.8325259472</v>
       </c>
       <c r="U58" s="48">
         <f>T58+U57</f>
-        <v>-215143.1483516787</v>
+        <v>-165736.8743241018</v>
       </c>
       <c r="V58" s="48">
         <f>U58+V57</f>
-        <v>-203465.6063782358</v>
+        <v>-141113.1915054061</v>
       </c>
       <c r="W58" s="48">
         <f>V58+W57</f>
-        <v>-202528.8327700363</v>
+        <v>-131684.3540942056</v>
       </c>
     </row>
     <row r="59" ht="20.25" customHeight="1">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B60" s="48">
         <f>MIN(B58:W58)</f>
-        <v>-221993.5202493926</v>
+        <v>-192654.5098483854</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -7678,55 +7678,55 @@
       </c>
       <c r="K15" s="40">
         <f>(J13+K14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>5775</v>
+        <v>7875</v>
       </c>
       <c r="L15" s="40">
         <f>(K13+L14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>11935</v>
+        <v>16275</v>
       </c>
       <c r="M15" s="40">
         <f>(L13+M14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>12595</v>
+        <v>17175</v>
       </c>
       <c r="N15" s="40">
         <f>(M13+N14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>15028.75</v>
+        <v>20493.75</v>
       </c>
       <c r="O15" s="40">
         <f>(N13+O14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>17875</v>
+        <v>24375</v>
       </c>
       <c r="P15" s="40">
         <f>(O13+P14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>19250</v>
+        <v>26250</v>
       </c>
       <c r="Q15" s="40">
         <f>(P13+Q14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>20625</v>
+        <v>28125</v>
       </c>
       <c r="R15" s="40">
         <f>(Q13+R14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>24681.25</v>
+        <v>33656.25</v>
       </c>
       <c r="S15" s="40">
         <f>(R13+S14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>31831.25</v>
+        <v>43406.25</v>
       </c>
       <c r="T15" s="40">
         <f>(S13+T14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>37056.25</v>
+        <v>50531.25</v>
       </c>
       <c r="U15" s="40">
         <f>(T13+U14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>39943.75</v>
+        <v>54468.75</v>
       </c>
       <c r="V15" s="40">
         <f>(U13+V14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>42831.25</v>
+        <v>58406.25</v>
       </c>
       <c r="W15" s="40">
         <f>(V13+W14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>45718.75</v>
+        <v>62343.75</v>
       </c>
     </row>
     <row r="16" ht="20.25" customHeight="1">
@@ -7796,55 +7796,55 @@
       </c>
       <c r="K17" s="38">
         <f>K9+K15</f>
-        <v>16520</v>
+        <v>18620</v>
       </c>
       <c r="L17" s="38">
         <f>L9+L15</f>
-        <v>19530</v>
+        <v>23870</v>
       </c>
       <c r="M17" s="38">
         <f>M9+M15</f>
-        <v>20610</v>
+        <v>25190</v>
       </c>
       <c r="N17" s="38">
         <f>N9+N15</f>
-        <v>23498.75</v>
+        <v>28963.75</v>
       </c>
       <c r="O17" s="38">
         <f>O9+O15</f>
-        <v>26975</v>
+        <v>33475</v>
       </c>
       <c r="P17" s="38">
         <f>P9+P15</f>
-        <v>29050</v>
+        <v>36050</v>
       </c>
       <c r="Q17" s="38">
         <f>Q9+Q15</f>
-        <v>31125</v>
+        <v>38625</v>
       </c>
       <c r="R17" s="38">
         <f>R9+R15</f>
-        <v>36056.25</v>
+        <v>45031.25</v>
       </c>
       <c r="S17" s="38">
         <f>S9+S15</f>
-        <v>44256.25</v>
+        <v>55831.25</v>
       </c>
       <c r="T17" s="38">
         <f>T9+T15</f>
-        <v>50531.25</v>
+        <v>64006.25</v>
       </c>
       <c r="U17" s="38">
         <f>U9+U15</f>
-        <v>54468.75</v>
+        <v>68993.75</v>
       </c>
       <c r="V17" s="38">
         <f>V9+V15</f>
-        <v>58406.25</v>
+        <v>73981.25</v>
       </c>
       <c r="W17" s="38">
         <f>W9+W15</f>
-        <v>62343.75</v>
+        <v>78968.75</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1">
@@ -7982,55 +7982,55 @@
       </c>
       <c r="K19" s="38">
         <f>K17*K18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>4720</v>
+        <v>5320</v>
       </c>
       <c r="L19" s="38">
         <f>L17*L18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>5231.25</v>
+        <v>6393.75</v>
       </c>
       <c r="M19" s="38">
         <f>M17*M18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>5284.615384615386</v>
+        <v>6458.974358974359</v>
       </c>
       <c r="N19" s="38">
         <f>N17*N18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>5639.700000000001</v>
+        <v>6951.3</v>
       </c>
       <c r="O19" s="38">
         <f>O17*O18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>5994.444444444445</v>
+        <v>7438.888888888890</v>
       </c>
       <c r="P19" s="38">
         <f>P17*P18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>6010.344827586207</v>
+        <v>7458.620689655173</v>
       </c>
       <c r="Q19" s="38">
         <f>Q17*Q18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>6024.193548387098</v>
+        <v>7475.806451612903</v>
       </c>
       <c r="R19" s="38">
         <f>R17*R18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>6362.867647058823</v>
+        <v>7946.691176470587</v>
       </c>
       <c r="S19" s="38">
         <f>S17*S18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>7176.689189189190</v>
+        <v>9053.716216216219</v>
       </c>
       <c r="T19" s="38">
         <f>T17*T18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>7579.6875</v>
+        <v>9600.9375</v>
       </c>
       <c r="U19" s="38">
         <f>U17*U18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>7600.290697674419</v>
+        <v>9627.034883720929</v>
       </c>
       <c r="V19" s="38">
         <f>V17*V18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>7618.206521739132</v>
+        <v>9649.728260869566</v>
       </c>
       <c r="W19" s="38">
         <f>W17*W18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>7633.928571428572</v>
+        <v>9669.642857142859</v>
       </c>
     </row>
     <row r="20" ht="19.95" customHeight="1">
@@ -8075,55 +8075,55 @@
       </c>
       <c r="K20" s="25">
         <f>K17-K19</f>
-        <v>11800</v>
+        <v>13300</v>
       </c>
       <c r="L20" s="25">
         <f>L17-L19</f>
-        <v>14298.75</v>
+        <v>17476.25</v>
       </c>
       <c r="M20" s="25">
         <f>M17-M19</f>
-        <v>15325.384615384613</v>
+        <v>18731.025641025641</v>
       </c>
       <c r="N20" s="25">
         <f>N17-N19</f>
-        <v>17859.05</v>
+        <v>22012.45</v>
       </c>
       <c r="O20" s="25">
         <f>O17-O19</f>
-        <v>20980.555555555555</v>
+        <v>26036.111111111109</v>
       </c>
       <c r="P20" s="25">
         <f>P17-P19</f>
-        <v>23039.655172413793</v>
+        <v>28591.379310344826</v>
       </c>
       <c r="Q20" s="25">
         <f>Q17-Q19</f>
-        <v>25100.8064516129</v>
+        <v>31149.1935483871</v>
       </c>
       <c r="R20" s="25">
         <f>R17-R19</f>
-        <v>29693.382352941175</v>
+        <v>37084.558823529413</v>
       </c>
       <c r="S20" s="25">
         <f>S17-S19</f>
-        <v>37079.560810810814</v>
+        <v>46777.533783783780</v>
       </c>
       <c r="T20" s="25">
         <f>T17-T19</f>
-        <v>42951.5625</v>
+        <v>54405.3125</v>
       </c>
       <c r="U20" s="25">
         <f>U17-U19</f>
-        <v>46868.459302325580</v>
+        <v>59366.715116279069</v>
       </c>
       <c r="V20" s="25">
         <f>V17-V19</f>
-        <v>50788.043478260865</v>
+        <v>64331.521739130432</v>
       </c>
       <c r="W20" s="25">
         <f>W17-W19</f>
-        <v>54709.821428571428</v>
+        <v>69299.107142857145</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1">
@@ -9641,51 +9641,51 @@
       </c>
       <c r="L44" s="38">
         <f>IF(K57&lt;0,ABS(K57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1182.393691594544</v>
+        <v>1165.756191594544</v>
       </c>
       <c r="M44" s="38">
         <f>IF(L57&lt;0,ABS(L57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1263.801998350827</v>
+        <v>1211.768217100828</v>
       </c>
       <c r="N44" s="38">
         <f>IF(M57&lt;0,ABS(M57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1334.569458976735</v>
+        <v>1244.284466355876</v>
       </c>
       <c r="O44" s="38">
         <f>IF(N57&lt;0,ABS(N57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1384.474508568637</v>
+        <v>1262.853821656445</v>
       </c>
       <c r="P44" s="38">
         <f>IF(O57&lt;0,ABS(O57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1394.539529526813</v>
+        <v>1215.729449280889</v>
       </c>
       <c r="Q44" s="38">
         <f>IF(P57&lt;0,ABS(P57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1427.507966593453</v>
+        <v>1185.480920382056</v>
       </c>
       <c r="R44" s="38">
         <f>IF(Q57&lt;0,ABS(Q57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1574.176254962760</v>
+        <v>1291.258242356</v>
       </c>
       <c r="S44" s="38">
         <f>IF(R57&lt;0,ABS(R57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1619.507104701880</v>
+        <v>1252.015211293283</v>
       </c>
       <c r="T44" s="38">
         <f>IF(S57&lt;0,ABS(S57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1583.328457835070</v>
+        <v>1104.901205178337</v>
       </c>
       <c r="U44" s="38">
         <f>IF(T57&lt;0,ABS(T57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1585.394855978969</v>
+        <v>1020.080600929694</v>
       </c>
       <c r="V44" s="38">
         <f>IF(U57&lt;0,ABS(U57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1440.328314397148</v>
+        <v>731.2055246068211</v>
       </c>
       <c r="W44" s="38">
         <f>IF(V57&lt;0,ABS(V57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1250.457275032745</v>
+        <v>384.6144466258618</v>
       </c>
     </row>
     <row r="45" ht="19.95" customHeight="1">
@@ -9805,51 +9805,51 @@
       </c>
       <c r="L46" s="48">
         <f>SUM(L37:L45)</f>
-        <v>3082.393691594544</v>
+        <v>3065.756191594544</v>
       </c>
       <c r="M46" s="48">
         <f>SUM(M37:M45)</f>
-        <v>3163.801998350827</v>
+        <v>3111.768217100827</v>
       </c>
       <c r="N46" s="48">
         <f>SUM(N37:N45)</f>
-        <v>3234.569458976735</v>
+        <v>3144.284466355875</v>
       </c>
       <c r="O46" s="48">
         <f>SUM(O37:O45)</f>
-        <v>3384.474508568637</v>
+        <v>3262.853821656446</v>
       </c>
       <c r="P46" s="48">
         <f>SUM(P37:P45)</f>
-        <v>7744.539529526814</v>
+        <v>7565.729449280889</v>
       </c>
       <c r="Q46" s="48">
         <f>SUM(Q37:Q45)</f>
-        <v>4527.507966593453</v>
+        <v>4285.480920382055</v>
       </c>
       <c r="R46" s="48">
         <f>SUM(R37:R45)</f>
-        <v>4774.176254962760</v>
+        <v>4491.258242356</v>
       </c>
       <c r="S46" s="48">
         <f>SUM(S37:S45)</f>
-        <v>4819.507104701880</v>
+        <v>4452.015211293283</v>
       </c>
       <c r="T46" s="48">
         <f>SUM(T37:T45)</f>
-        <v>4783.328457835070</v>
+        <v>4304.901205178337</v>
       </c>
       <c r="U46" s="48">
         <f>SUM(U37:U45)</f>
-        <v>4785.394855978969</v>
+        <v>4220.080600929694</v>
       </c>
       <c r="V46" s="48">
         <f>SUM(V37:V45)</f>
-        <v>4640.328314397148</v>
+        <v>3931.205524606821</v>
       </c>
       <c r="W46" s="48">
         <f>SUM(W37:W45)</f>
-        <v>4450.457275032745</v>
+        <v>3584.614446625862</v>
       </c>
     </row>
     <row r="47" ht="19.95" customHeight="1">
@@ -9946,55 +9946,55 @@
       </c>
       <c r="K49" s="38">
         <f>K17*0.21</f>
-        <v>3469.2</v>
+        <v>3910.2</v>
       </c>
       <c r="L49" s="38">
         <f>L17*0.21</f>
-        <v>4101.3</v>
+        <v>5012.7</v>
       </c>
       <c r="M49" s="38">
         <f>M17*0.21</f>
-        <v>4328.099999999999</v>
+        <v>5289.9</v>
       </c>
       <c r="N49" s="38">
         <f>N17*0.21</f>
-        <v>4934.7375</v>
+        <v>6082.3875</v>
       </c>
       <c r="O49" s="38">
         <f>O17*0.21</f>
-        <v>5664.75</v>
+        <v>7029.75</v>
       </c>
       <c r="P49" s="38">
         <f>P17*0.21</f>
-        <v>6100.5</v>
+        <v>7570.5</v>
       </c>
       <c r="Q49" s="38">
         <f>Q17*0.21</f>
-        <v>6536.25</v>
+        <v>8111.25</v>
       </c>
       <c r="R49" s="38">
         <f>R17*0.21</f>
-        <v>7571.8125</v>
+        <v>9456.5625</v>
       </c>
       <c r="S49" s="38">
         <f>S17*0.21</f>
-        <v>9293.8125</v>
+        <v>11724.5625</v>
       </c>
       <c r="T49" s="38">
         <f>T17*0.21</f>
-        <v>10611.5625</v>
+        <v>13441.3125</v>
       </c>
       <c r="U49" s="38">
         <f>U17*0.21</f>
-        <v>11438.4375</v>
+        <v>14488.6875</v>
       </c>
       <c r="V49" s="38">
         <f>V17*0.21</f>
-        <v>12265.3125</v>
+        <v>15536.0625</v>
       </c>
       <c r="W49" s="38">
         <f>W17*0.21</f>
-        <v>13092.1875</v>
+        <v>16583.4375</v>
       </c>
     </row>
     <row r="50" ht="19.95" customHeight="1">
@@ -10039,55 +10039,55 @@
       </c>
       <c r="K50" s="38">
         <f>K19*0.21</f>
-        <v>991.1999999999999</v>
+        <v>1117.2</v>
       </c>
       <c r="L50" s="38">
         <f>L19*0.21</f>
-        <v>1098.5625</v>
+        <v>1342.6875</v>
       </c>
       <c r="M50" s="38">
         <f>M19*0.21</f>
-        <v>1109.769230769231</v>
+        <v>1356.384615384615</v>
       </c>
       <c r="N50" s="38">
         <f>N19*0.21</f>
-        <v>1184.337</v>
+        <v>1459.773</v>
       </c>
       <c r="O50" s="38">
         <f>O19*0.21</f>
-        <v>1258.833333333333</v>
+        <v>1562.166666666667</v>
       </c>
       <c r="P50" s="38">
         <f>P19*0.21</f>
-        <v>1262.172413793103</v>
+        <v>1566.310344827586</v>
       </c>
       <c r="Q50" s="38">
         <f>Q19*0.21</f>
-        <v>1265.080645161290</v>
+        <v>1569.919354838710</v>
       </c>
       <c r="R50" s="38">
         <f>R19*0.21</f>
-        <v>1336.202205882353</v>
+        <v>1668.805147058823</v>
       </c>
       <c r="S50" s="38">
         <f>S19*0.21</f>
-        <v>1507.104729729730</v>
+        <v>1901.280405405406</v>
       </c>
       <c r="T50" s="38">
         <f>T19*0.21</f>
-        <v>1591.734375</v>
+        <v>2016.196875</v>
       </c>
       <c r="U50" s="38">
         <f>U19*0.21</f>
-        <v>1596.061046511628</v>
+        <v>2021.677325581395</v>
       </c>
       <c r="V50" s="38">
         <f>V19*0.21</f>
-        <v>1599.823369565218</v>
+        <v>2026.442934782609</v>
       </c>
       <c r="W50" s="38">
         <f>W19*0.21</f>
-        <v>1603.125</v>
+        <v>2030.625</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1">
@@ -10318,55 +10318,55 @@
       </c>
       <c r="K53" s="25">
         <f>K49-SUM(K50:K52)</f>
-        <v>-1302</v>
+        <v>-987</v>
       </c>
       <c r="L53" s="25">
         <f>L49-SUM(L50:L52)</f>
-        <v>902.7375000000002</v>
+        <v>1570.0125</v>
       </c>
       <c r="M53" s="25">
         <f>M49-SUM(M50:M52)</f>
-        <v>1118.330769230769</v>
+        <v>1833.515384615384</v>
       </c>
       <c r="N53" s="25">
         <f>N49-SUM(N50:N52)</f>
-        <v>1650.4005</v>
+        <v>2522.6145</v>
       </c>
       <c r="O53" s="25">
         <f>O49-SUM(O50:O52)</f>
-        <v>2305.916666666667</v>
+        <v>3367.583333333333</v>
       </c>
       <c r="P53" s="25">
         <f>P49-SUM(P50:P52)</f>
-        <v>2108.327586206897</v>
+        <v>3274.189655172414</v>
       </c>
       <c r="Q53" s="25">
         <f>Q49-SUM(Q50:Q52)</f>
-        <v>1491.169354838709</v>
+        <v>2761.330645161290</v>
       </c>
       <c r="R53" s="25">
         <f>R49-SUM(R50:R52)</f>
-        <v>4135.610294117647</v>
+        <v>5687.757352941177</v>
       </c>
       <c r="S53" s="25">
         <f>S49-SUM(S50:S52)</f>
-        <v>5686.707770270270</v>
+        <v>7723.282094594594</v>
       </c>
       <c r="T53" s="25">
         <f>T49-SUM(T50:T52)</f>
-        <v>6919.828125</v>
+        <v>9325.115625</v>
       </c>
       <c r="U53" s="25">
         <f>U49-SUM(U50:U52)</f>
-        <v>7742.376453488372</v>
+        <v>10367.0101744186</v>
       </c>
       <c r="V53" s="25">
         <f>V49-SUM(V50:V52)</f>
-        <v>8565.489130434782</v>
+        <v>11409.619565217392</v>
       </c>
       <c r="W53" s="25">
         <f>W49-SUM(W50:W52)</f>
-        <v>9389.0625</v>
+        <v>12452.8125</v>
       </c>
     </row>
     <row r="54" ht="19.95" customHeight="1">
@@ -10396,25 +10396,25 @@
       <c r="M54" s="38"/>
       <c r="N54" s="38">
         <f>SUM(K53:M53)</f>
-        <v>719.0682692307687</v>
+        <v>2416.527884615384</v>
       </c>
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
       <c r="Q54" s="38">
         <f>SUM(N53:P53)</f>
-        <v>6064.644752873563</v>
+        <v>9164.387488505747</v>
       </c>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
       <c r="T54" s="38">
         <f>SUM(Q53:S53)</f>
-        <v>11313.487419226625</v>
+        <v>16172.370092697060</v>
       </c>
       <c r="U54" s="38"/>
       <c r="V54" s="38"/>
       <c r="W54" s="38">
         <f>SUM(T53:V53)</f>
-        <v>23227.693708923154</v>
+        <v>31101.745364636</v>
       </c>
     </row>
     <row r="55" ht="19.95" customHeight="1">
@@ -10484,55 +10484,55 @@
       </c>
       <c r="K56" s="48">
         <f>K20+K53-K46-K34-K29-K54</f>
-        <v>-13968.1009703951</v>
+        <v>-12153.1009703951</v>
       </c>
       <c r="L56" s="48">
         <f>L20+L53-L46-L34-L29-L54</f>
-        <v>-8880.906191594546</v>
+        <v>-5019.493691594544</v>
       </c>
       <c r="M56" s="48">
         <f>M20+M53-M46-M34-M29-M54</f>
-        <v>-7720.086613735446</v>
+        <v>-3547.227191459802</v>
       </c>
       <c r="N56" s="48">
         <f>N20+N53-N46-N34-N29-N54</f>
-        <v>-5444.187228207506</v>
+        <v>-2025.747850971259</v>
       </c>
       <c r="O56" s="48">
         <f>O20+O53-O46-O34-O29-O54</f>
-        <v>-1098.002286346415</v>
+        <v>5140.840622787997</v>
       </c>
       <c r="P56" s="48">
         <f>P20+P53-P46-P34-P29-P54</f>
-        <v>-3596.556770906125</v>
+        <v>3299.839516236352</v>
       </c>
       <c r="Q56" s="48">
         <f>Q20+Q53-Q46-Q34-Q29-Q54</f>
-        <v>-16000.176913015406</v>
+        <v>-11539.344215339415</v>
       </c>
       <c r="R56" s="48">
         <f>R20+R53-R46-R34-R29-R54</f>
-        <v>-4945.183607903935</v>
+        <v>4281.057934114586</v>
       </c>
       <c r="S56" s="48">
         <f>S20+S53-S46-S34-S29-S54</f>
-        <v>3946.761476379201</v>
+        <v>16048.800667085088</v>
       </c>
       <c r="T56" s="48">
         <f>T20+T53-T46-T34-T29-T54</f>
-        <v>-225.4252520616974</v>
+        <v>9253.156827124603</v>
       </c>
       <c r="U56" s="48">
         <f>U20+U53-U46-U34-U29-U54</f>
-        <v>15825.440899834983</v>
+        <v>31513.644689767985</v>
       </c>
       <c r="V56" s="48">
         <f>V20+V53-V46-V34-V29-V54</f>
-        <v>20713.2042942985</v>
+        <v>37809.935779741</v>
       </c>
       <c r="W56" s="48">
         <f>W20+W53-W46-W34-W29-W54</f>
-        <v>2420.732944615531</v>
+        <v>13065.559831595292</v>
       </c>
     </row>
     <row r="57" ht="20.25" customHeight="1">
@@ -10576,55 +10576,55 @@
       </c>
       <c r="K57" s="48">
         <f>J57+K56</f>
-        <v>-128988.4027194048</v>
+        <v>-127173.4027194048</v>
       </c>
       <c r="L57" s="48">
         <f>K57+L56</f>
-        <v>-137869.3089109993</v>
+        <v>-132192.8964109994</v>
       </c>
       <c r="M57" s="48">
         <f>L57+M56</f>
-        <v>-145589.3955247348</v>
+        <v>-135740.1236024591</v>
       </c>
       <c r="N57" s="48">
         <f>M57+N56</f>
-        <v>-151033.5827529423</v>
+        <v>-137765.8714534304</v>
       </c>
       <c r="O57" s="48">
         <f>N57+O56</f>
-        <v>-152131.5850392887</v>
+        <v>-132625.0308306424</v>
       </c>
       <c r="P57" s="48">
         <f>O57+P56</f>
-        <v>-155728.1418101948</v>
+        <v>-129325.1913144061</v>
       </c>
       <c r="Q57" s="48">
         <f>P57+Q56</f>
-        <v>-171728.3187232102</v>
+        <v>-140864.5355297455</v>
       </c>
       <c r="R57" s="48">
         <f>Q57+R56</f>
-        <v>-176673.5023311141</v>
+        <v>-136583.4775956309</v>
       </c>
       <c r="S57" s="48">
         <f>R57+S56</f>
-        <v>-172726.7408547349</v>
+        <v>-120534.6769285458</v>
       </c>
       <c r="T57" s="48">
         <f>S57+T56</f>
-        <v>-172952.1661067966</v>
+        <v>-111281.5201014212</v>
       </c>
       <c r="U57" s="48">
         <f>T57+U56</f>
-        <v>-157126.7252069616</v>
+        <v>-79767.875411653207</v>
       </c>
       <c r="V57" s="48">
         <f>U57+V56</f>
-        <v>-136413.5209126631</v>
+        <v>-41957.9396319122</v>
       </c>
       <c r="W57" s="48">
         <f>V57+W56</f>
-        <v>-133992.7879680476</v>
+        <v>-28892.379800316910</v>
       </c>
     </row>
     <row r="58" ht="20.25" customHeight="1">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B59" s="48">
         <f>MIN(B57:W57)</f>
-        <v>-176673.5023311141</v>
+        <v>-140864.5355297455</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -11966,55 +11966,55 @@
       </c>
       <c r="K15" s="40">
         <f>(J13+K14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>11825</v>
+        <v>16125</v>
       </c>
       <c r="L15" s="40">
         <f>(K13+L14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>24035</v>
+        <v>32775</v>
       </c>
       <c r="M15" s="40">
         <f>(L13+M14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>24695</v>
+        <v>33675</v>
       </c>
       <c r="N15" s="40">
         <f>(M13+N14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>28641.25</v>
+        <v>39056.25</v>
       </c>
       <c r="O15" s="40">
         <f>(N13+O14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>33000</v>
+        <v>45000</v>
       </c>
       <c r="P15" s="40">
         <f>(O13+P14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>34375</v>
+        <v>46875</v>
       </c>
       <c r="Q15" s="40">
         <f>(P13+Q14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>35750</v>
+        <v>48750</v>
       </c>
       <c r="R15" s="40">
         <f>(Q13+R14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>41318.75</v>
+        <v>56343.75</v>
       </c>
       <c r="S15" s="40">
         <f>(R13+S14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>51493.75</v>
+        <v>70218.75</v>
       </c>
       <c r="T15" s="40">
         <f>(S13+T14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>58231.25</v>
+        <v>79406.25</v>
       </c>
       <c r="U15" s="40">
         <f>(T13+U14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>61118.75</v>
+        <v>83343.75</v>
       </c>
       <c r="V15" s="40">
         <f>(U13+V14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>64006.25</v>
+        <v>87281.25</v>
       </c>
       <c r="W15" s="40">
         <f>(V13+W14/2)*'Prijsmodel - Prijsmodel op basi'!$B$5</f>
-        <v>66893.75</v>
+        <v>91218.75</v>
       </c>
     </row>
     <row r="16" ht="20.25" customHeight="1">
@@ -12084,55 +12084,55 @@
       </c>
       <c r="K17" s="38">
         <f>K9+K15</f>
-        <v>34120</v>
+        <v>38420</v>
       </c>
       <c r="L17" s="38">
         <f>L9+L15</f>
-        <v>39330</v>
+        <v>48070</v>
       </c>
       <c r="M17" s="38">
         <f>M9+M15</f>
-        <v>40410</v>
+        <v>49390</v>
       </c>
       <c r="N17" s="38">
         <f>N9+N15</f>
-        <v>44811.25</v>
+        <v>55226.25</v>
       </c>
       <c r="O17" s="38">
         <f>O9+O15</f>
-        <v>49800</v>
+        <v>61800</v>
       </c>
       <c r="P17" s="38">
         <f>P9+P15</f>
-        <v>51875</v>
+        <v>64375</v>
       </c>
       <c r="Q17" s="38">
         <f>Q9+Q15</f>
-        <v>53950</v>
+        <v>66950</v>
       </c>
       <c r="R17" s="38">
         <f>R9+R15</f>
-        <v>60393.75</v>
+        <v>75418.75</v>
       </c>
       <c r="S17" s="38">
         <f>S9+S15</f>
-        <v>71618.75</v>
+        <v>90343.75</v>
       </c>
       <c r="T17" s="38">
         <f>T9+T15</f>
-        <v>79406.25</v>
+        <v>100581.25</v>
       </c>
       <c r="U17" s="38">
         <f>U9+U15</f>
-        <v>83343.75</v>
+        <v>105568.75</v>
       </c>
       <c r="V17" s="38">
         <f>V9+V15</f>
-        <v>87281.25</v>
+        <v>110556.25</v>
       </c>
       <c r="W17" s="38">
         <f>W9+W15</f>
-        <v>91218.75</v>
+        <v>115543.75</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1">
@@ -12270,55 +12270,55 @@
       </c>
       <c r="K19" s="38">
         <f>K17*K18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>11743.627906976744</v>
+        <v>13223.627906976746</v>
       </c>
       <c r="L19" s="38">
         <f>L17*L18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>13110</v>
+        <v>16023.333333333336</v>
       </c>
       <c r="M19" s="38">
         <f>M17*M18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>13173.303964757710</v>
+        <v>16100.704845814978</v>
       </c>
       <c r="N19" s="38">
         <f>N17*N18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>14110.776595744683</v>
+        <v>17390.393617021280</v>
       </c>
       <c r="O19" s="38">
         <f>O17*O18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>15041.632653061226</v>
+        <v>18666.122448979593</v>
       </c>
       <c r="P19" s="38">
         <f>P17*P18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>15053.921568627453</v>
+        <v>18681.372549019608</v>
       </c>
       <c r="Q19" s="38">
         <f>Q17*Q18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>15065.283018867925</v>
+        <v>18695.471698113208</v>
       </c>
       <c r="R19" s="38">
         <f>R17*R18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>15961.205357142859</v>
+        <v>19932.098214285714</v>
       </c>
       <c r="S19" s="38">
         <f>S17*S18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>17965.3813559322</v>
+        <v>22662.5</v>
       </c>
       <c r="T19" s="38">
         <f>T17*T18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>18955.040322580648</v>
+        <v>24009.717741935485</v>
       </c>
       <c r="U19" s="38">
         <f>U17*U18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>18976.730769230770</v>
+        <v>24037.192307692309</v>
       </c>
       <c r="V19" s="38">
         <f>V17*V18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>18996.507352941175</v>
+        <v>24062.242647058825</v>
       </c>
       <c r="W19" s="38">
         <f>W17*W18*'Prijsmodel - Prijsmodel op basi'!$B$8</f>
-        <v>19014.612676056338</v>
+        <v>24085.176056338027</v>
       </c>
     </row>
     <row r="20" ht="19.95" customHeight="1">
@@ -12363,55 +12363,55 @@
       </c>
       <c r="K20" s="25">
         <f>K17-K19</f>
-        <v>22376.372093023256</v>
+        <v>25196.372093023252</v>
       </c>
       <c r="L20" s="25">
         <f>L17-L19</f>
-        <v>26220</v>
+        <v>32046.666666666664</v>
       </c>
       <c r="M20" s="25">
         <f>M17-M19</f>
-        <v>27236.696035242290</v>
+        <v>33289.295154185020</v>
       </c>
       <c r="N20" s="25">
         <f>N17-N19</f>
-        <v>30700.473404255317</v>
+        <v>37835.856382978716</v>
       </c>
       <c r="O20" s="25">
         <f>O17-O19</f>
-        <v>34758.367346938772</v>
+        <v>43133.877551020407</v>
       </c>
       <c r="P20" s="25">
         <f>P17-P19</f>
-        <v>36821.078431372545</v>
+        <v>45693.627450980392</v>
       </c>
       <c r="Q20" s="25">
         <f>Q17-Q19</f>
-        <v>38884.716981132078</v>
+        <v>48254.528301886792</v>
       </c>
       <c r="R20" s="25">
         <f>R17-R19</f>
-        <v>44432.544642857145</v>
+        <v>55486.651785714290</v>
       </c>
       <c r="S20" s="25">
         <f>S17-S19</f>
-        <v>53653.3686440678</v>
+        <v>67681.25</v>
       </c>
       <c r="T20" s="25">
         <f>T17-T19</f>
-        <v>60451.209677419349</v>
+        <v>76571.532258064515</v>
       </c>
       <c r="U20" s="25">
         <f>U17-U19</f>
-        <v>64367.019230769234</v>
+        <v>81531.557692307688</v>
       </c>
       <c r="V20" s="25">
         <f>V17-V19</f>
-        <v>68284.742647058825</v>
+        <v>86494.007352941175</v>
       </c>
       <c r="W20" s="25">
         <f>W17-W19</f>
-        <v>72204.137323943665</v>
+        <v>91458.573943661977</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1">
@@ -13929,51 +13929,51 @@
       </c>
       <c r="L44" s="38">
         <f>IF(K57&lt;0,ABS(K57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>975.5261015961581</v>
+        <v>944.247601596158</v>
       </c>
       <c r="M44" s="38">
         <f>IF(L57&lt;0,ABS(L57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>978.7282575274562</v>
+        <v>882.5355934996784</v>
       </c>
       <c r="N44" s="38">
         <f>IF(M57&lt;0,ABS(M57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>970.6829130305622</v>
+        <v>806.4750710215899</v>
       </c>
       <c r="O44" s="38">
         <f>IF(N57&lt;0,ABS(N57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>996.9734117047215</v>
+        <v>780.4131282422915</v>
       </c>
       <c r="P44" s="38">
         <f>IF(O57&lt;0,ABS(O57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>906.5841101555524</v>
+        <v>595.1403234144444</v>
       </c>
       <c r="Q44" s="38">
         <f>IF(P57&lt;0,ABS(P57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>838.1373362306709</v>
+        <v>425.4272919019527</v>
       </c>
       <c r="R44" s="38">
         <f>IF(Q57&lt;0,ABS(Q57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>1016.121120390169</v>
+        <v>542.6392029953785</v>
       </c>
       <c r="S44" s="38">
         <f>IF(R57&lt;0,ABS(R57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>948.7712563300556</v>
+        <v>348.3406162996218</v>
       </c>
       <c r="T44" s="38">
         <f>IF(S57&lt;0,ABS(S57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>778.5297123026293</v>
+        <v>17.00254069903503</v>
       </c>
       <c r="U44" s="38">
         <f>IF(T57&lt;0,ABS(T57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>721.8466972593701</v>
+        <v>0</v>
       </c>
       <c r="V44" s="38">
         <f>IF(U57&lt;0,ABS(U57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>430.6927703496323</v>
+        <v>0</v>
       </c>
       <c r="W44" s="38">
         <f>IF(V57&lt;0,ABS(V57*'Prijsmodel - Prijsmodel op basi'!$B$9/12),0)</f>
-        <v>93.41585021754319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="19.95" customHeight="1">
@@ -14093,51 +14093,51 @@
       </c>
       <c r="L46" s="48">
         <f>SUM(L37:L45)</f>
-        <v>2975.526101596158</v>
+        <v>2944.247601596158</v>
       </c>
       <c r="M46" s="48">
         <f>SUM(M37:M45)</f>
-        <v>2978.728257527456</v>
+        <v>2882.535593499678</v>
       </c>
       <c r="N46" s="48">
         <f>SUM(N37:N45)</f>
-        <v>2970.682913030562</v>
+        <v>2806.475071021590</v>
       </c>
       <c r="O46" s="48">
         <f>SUM(O37:O45)</f>
-        <v>3096.973411704721</v>
+        <v>2880.413128242291</v>
       </c>
       <c r="P46" s="48">
         <f>SUM(P37:P45)</f>
-        <v>7356.584110155552</v>
+        <v>7045.140323414445</v>
       </c>
       <c r="Q46" s="48">
         <f>SUM(Q37:Q45)</f>
-        <v>4138.137336230671</v>
+        <v>3725.427291901953</v>
       </c>
       <c r="R46" s="48">
         <f>SUM(R37:R45)</f>
-        <v>4316.121120390169</v>
+        <v>3842.639202995379</v>
       </c>
       <c r="S46" s="48">
         <f>SUM(S37:S45)</f>
-        <v>4248.771256330056</v>
+        <v>3648.340616299622</v>
       </c>
       <c r="T46" s="48">
         <f>SUM(T37:T45)</f>
-        <v>4078.529712302629</v>
+        <v>3317.002540699035</v>
       </c>
       <c r="U46" s="48">
         <f>SUM(U37:U45)</f>
-        <v>4021.846697259370</v>
+        <v>3300</v>
       </c>
       <c r="V46" s="48">
         <f>SUM(V37:V45)</f>
-        <v>3730.692770349632</v>
+        <v>3300</v>
       </c>
       <c r="W46" s="48">
         <f>SUM(W37:W45)</f>
-        <v>3393.415850217543</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="47" ht="19.95" customHeight="1">
@@ -14234,55 +14234,55 @@
       </c>
       <c r="K49" s="38">
         <f>K17*0.21</f>
-        <v>7165.2</v>
+        <v>8068.2</v>
       </c>
       <c r="L49" s="38">
         <f>L17*0.21</f>
-        <v>8259.299999999999</v>
+        <v>10094.7</v>
       </c>
       <c r="M49" s="38">
         <f>M17*0.21</f>
-        <v>8486.1</v>
+        <v>10371.9</v>
       </c>
       <c r="N49" s="38">
         <f>N17*0.21</f>
-        <v>9410.362499999999</v>
+        <v>11597.5125</v>
       </c>
       <c r="O49" s="38">
         <f>O17*0.21</f>
-        <v>10458</v>
+        <v>12978</v>
       </c>
       <c r="P49" s="38">
         <f>P17*0.21</f>
-        <v>10893.75</v>
+        <v>13518.75</v>
       </c>
       <c r="Q49" s="38">
         <f>Q17*0.21</f>
-        <v>11329.5</v>
+        <v>14059.5</v>
       </c>
       <c r="R49" s="38">
         <f>R17*0.21</f>
-        <v>12682.6875</v>
+        <v>15837.9375</v>
       </c>
       <c r="S49" s="38">
         <f>S17*0.21</f>
-        <v>15039.9375</v>
+        <v>18972.1875</v>
       </c>
       <c r="T49" s="38">
         <f>T17*0.21</f>
-        <v>16675.3125</v>
+        <v>21122.0625</v>
       </c>
       <c r="U49" s="38">
         <f>U17*0.21</f>
-        <v>17502.1875</v>
+        <v>22169.4375</v>
       </c>
       <c r="V49" s="38">
         <f>V17*0.21</f>
-        <v>18329.0625</v>
+        <v>23216.8125</v>
       </c>
       <c r="W49" s="38">
         <f>W17*0.21</f>
-        <v>19155.9375</v>
+        <v>24264.1875</v>
       </c>
     </row>
     <row r="50" ht="19.95" customHeight="1">
@@ -14327,55 +14327,55 @@
       </c>
       <c r="K50" s="38">
         <f>K19*0.21</f>
-        <v>2466.161860465116</v>
+        <v>2776.961860465116</v>
       </c>
       <c r="L50" s="38">
         <f>L19*0.21</f>
-        <v>2753.1</v>
+        <v>3364.900000000001</v>
       </c>
       <c r="M50" s="38">
         <f>M19*0.21</f>
-        <v>2766.393832599119</v>
+        <v>3381.148017621145</v>
       </c>
       <c r="N50" s="38">
         <f>N19*0.21</f>
-        <v>2963.263085106383</v>
+        <v>3651.982659574468</v>
       </c>
       <c r="O50" s="38">
         <f>O19*0.21</f>
-        <v>3158.742857142857</v>
+        <v>3919.885714285715</v>
       </c>
       <c r="P50" s="38">
         <f>P19*0.21</f>
-        <v>3161.323529411765</v>
+        <v>3923.088235294118</v>
       </c>
       <c r="Q50" s="38">
         <f>Q19*0.21</f>
-        <v>3163.709433962264</v>
+        <v>3926.049056603773</v>
       </c>
       <c r="R50" s="38">
         <f>R19*0.21</f>
-        <v>3351.853125</v>
+        <v>4185.740624999999</v>
       </c>
       <c r="S50" s="38">
         <f>S19*0.21</f>
-        <v>3772.730084745763</v>
+        <v>4759.125</v>
       </c>
       <c r="T50" s="38">
         <f>T19*0.21</f>
-        <v>3980.558467741936</v>
+        <v>5042.040725806452</v>
       </c>
       <c r="U50" s="38">
         <f>U19*0.21</f>
-        <v>3985.113461538461</v>
+        <v>5047.810384615384</v>
       </c>
       <c r="V50" s="38">
         <f>V19*0.21</f>
-        <v>3989.266544117646</v>
+        <v>5053.070955882353</v>
       </c>
       <c r="W50" s="38">
         <f>W19*0.21</f>
-        <v>3993.068661971831</v>
+        <v>5057.886971830985</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1">
@@ -14606,55 +14606,55 @@
       </c>
       <c r="K53" s="25">
         <f>K49-SUM(K50:K52)</f>
-        <v>919.0381395348841</v>
+        <v>1511.238139534883</v>
       </c>
       <c r="L53" s="25">
         <f>L49-SUM(L50:L52)</f>
-        <v>3406.199999999999</v>
+        <v>4629.799999999998</v>
       </c>
       <c r="M53" s="25">
         <f>M49-SUM(M50:M52)</f>
-        <v>3619.706167400882</v>
+        <v>4890.751982378854</v>
       </c>
       <c r="N53" s="25">
         <f>N49-SUM(N50:N52)</f>
-        <v>4347.099414893616</v>
+        <v>5845.529840425530</v>
       </c>
       <c r="O53" s="25">
         <f>O49-SUM(O50:O52)</f>
-        <v>5199.257142857143</v>
+        <v>6958.114285714286</v>
       </c>
       <c r="P53" s="25">
         <f>P49-SUM(P50:P52)</f>
-        <v>5002.426470588235</v>
+        <v>6865.661764705883</v>
       </c>
       <c r="Q53" s="25">
         <f>Q49-SUM(Q50:Q52)</f>
-        <v>4385.790566037736</v>
+        <v>6353.450943396227</v>
       </c>
       <c r="R53" s="25">
         <f>R49-SUM(R50:R52)</f>
-        <v>7230.834375</v>
+        <v>9552.196875000001</v>
       </c>
       <c r="S53" s="25">
         <f>S49-SUM(S50:S52)</f>
-        <v>9167.207415254237</v>
+        <v>12113.0625</v>
       </c>
       <c r="T53" s="25">
         <f>T49-SUM(T50:T52)</f>
-        <v>10594.754032258064</v>
+        <v>13980.021774193548</v>
       </c>
       <c r="U53" s="25">
         <f>U49-SUM(U50:U52)</f>
-        <v>11417.074038461538</v>
+        <v>15021.627115384616</v>
       </c>
       <c r="V53" s="25">
         <f>V49-SUM(V50:V52)</f>
-        <v>12239.795955882353</v>
+        <v>16063.741544117647</v>
       </c>
       <c r="W53" s="25">
         <f>W49-SUM(W50:W52)</f>
-        <v>13062.868838028169</v>
+        <v>17106.300528169013</v>
       </c>
     </row>
     <row r="54" ht="19.95" customHeight="1">
@@ -14684,25 +14684,25 @@
       <c r="M54" s="38"/>
       <c r="N54" s="38">
         <f>SUM(K53:M53)</f>
-        <v>7944.944306935765</v>
+        <v>11031.790121913735</v>
       </c>
       <c r="O54" s="38"/>
       <c r="P54" s="38"/>
       <c r="Q54" s="38">
         <f>SUM(N53:P53)</f>
-        <v>14548.783028338992</v>
+        <v>19669.3058908457</v>
       </c>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
       <c r="T54" s="38">
         <f>SUM(Q53:S53)</f>
-        <v>20783.832356291976</v>
+        <v>28018.710318396228</v>
       </c>
       <c r="U54" s="38"/>
       <c r="V54" s="38"/>
       <c r="W54" s="38">
         <f>SUM(T53:V53)</f>
-        <v>34251.624026601959</v>
+        <v>45065.390433695815</v>
       </c>
     </row>
     <row r="55" ht="19.95" customHeight="1">
@@ -14772,55 +14772,55 @@
       </c>
       <c r="K56" s="48">
         <f>K20+K53-K46-K34-K29-K54</f>
-        <v>-11932.281439602639</v>
+        <v>-8520.081439602645</v>
       </c>
       <c r="L56" s="48">
         <f>L20+L53-L46-L34-L29-L54</f>
-        <v>-349.3261015961616</v>
+        <v>6732.219065070502</v>
       </c>
       <c r="M56" s="48">
         <f>M20+M53-M46-M34-M29-M54</f>
-        <v>877.6739451157155</v>
+        <v>8297.511543064196</v>
       </c>
       <c r="N56" s="48">
         <f>N20+N53-N46-N34-N29-N54</f>
-        <v>-2868.054400817396</v>
+        <v>2843.121030468923</v>
       </c>
       <c r="O56" s="48">
         <f>O20+O53-O46-O34-O29-O54</f>
-        <v>9860.651078091192</v>
+        <v>20211.5787084924</v>
       </c>
       <c r="P56" s="48">
         <f>P20+P53-P46-P34-P29-P54</f>
-        <v>7466.920791805227</v>
+        <v>18514.148892271827</v>
       </c>
       <c r="Q56" s="48">
         <f>Q20+Q53-Q46-Q34-Q29-Q54</f>
-        <v>-19416.412817399847</v>
+        <v>-12786.753937464633</v>
       </c>
       <c r="R56" s="48">
         <f>R20+R53-R46-R34-R29-R54</f>
-        <v>7347.257897466974</v>
+        <v>21196.209457718913</v>
       </c>
       <c r="S56" s="48">
         <f>S20+S53-S46-S34-S29-S54</f>
-        <v>18571.804802991974</v>
+        <v>36145.971883700375</v>
       </c>
       <c r="T56" s="48">
         <f>T20+T53-T46-T34-T29-T54</f>
-        <v>6183.601641082809</v>
+        <v>19215.8411731628</v>
       </c>
       <c r="U56" s="48">
         <f>U20+U53-U46-U34-U29-U54</f>
-        <v>31762.246571971395</v>
+        <v>53253.184807692305</v>
       </c>
       <c r="V56" s="48">
         <f>V20+V53-V46-V34-V29-V54</f>
-        <v>36793.845832591542</v>
+        <v>59257.748897058817</v>
       </c>
       <c r="W56" s="48">
         <f>W20+W53-W46-W34-W29-W54</f>
-        <v>7621.966285152332</v>
+        <v>20199.484038135175</v>
       </c>
     </row>
     <row r="57" ht="20.25" customHeight="1">
@@ -14864,55 +14864,55 @@
       </c>
       <c r="K57" s="48">
         <f>J57+K56</f>
-        <v>-106421.0292650354</v>
+        <v>-103008.8292650354</v>
       </c>
       <c r="L57" s="48">
         <f>K57+L56</f>
-        <v>-106770.3553666316</v>
+        <v>-96276.610199964925</v>
       </c>
       <c r="M57" s="48">
         <f>L57+M56</f>
-        <v>-105892.6814215159</v>
+        <v>-87979.098656900722</v>
       </c>
       <c r="N57" s="48">
         <f>M57+N56</f>
-        <v>-108760.7358223333</v>
+        <v>-85135.977626431792</v>
       </c>
       <c r="O57" s="48">
         <f>N57+O56</f>
-        <v>-98900.084744242064</v>
+        <v>-64924.398917939390</v>
       </c>
       <c r="P57" s="48">
         <f>O57+P56</f>
-        <v>-91433.163952436837</v>
+        <v>-46410.250025667563</v>
       </c>
       <c r="Q57" s="48">
         <f>P57+Q56</f>
-        <v>-110849.5767698367</v>
+        <v>-59197.0039631322</v>
       </c>
       <c r="R57" s="48">
         <f>Q57+R56</f>
-        <v>-103502.3188723697</v>
+        <v>-38000.794505413287</v>
       </c>
       <c r="S57" s="48">
         <f>R57+S56</f>
-        <v>-84930.514069377736</v>
+        <v>-1854.822621712912</v>
       </c>
       <c r="T57" s="48">
         <f>S57+T56</f>
-        <v>-78746.912428294920</v>
+        <v>17361.018551449892</v>
       </c>
       <c r="U57" s="48">
         <f>T57+U56</f>
-        <v>-46984.665856323525</v>
+        <v>70614.203359142193</v>
       </c>
       <c r="V57" s="48">
         <f>U57+V56</f>
-        <v>-10190.820023731983</v>
+        <v>129871.952256201</v>
       </c>
       <c r="W57" s="48">
         <f>V57+W56</f>
-        <v>-2568.853738579652</v>
+        <v>150071.4362943362</v>
       </c>
     </row>
     <row r="58" ht="20.25" customHeight="1">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="B59" s="48">
         <f>MIN(B57:W57)</f>
-        <v>-110849.5767698367</v>
+        <v>-103008.8292650354</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -15632,15 +15632,15 @@
       </c>
       <c r="B3" s="60">
         <f>SUM('Liquiditeitsbegroting zelfstand'!K19:V19)</f>
-        <v>216496.25</v>
+        <v>271231.25</v>
       </c>
       <c r="C3" s="61">
         <f>SUM('Liquiditeitsbegroting met bouw7'!K17:V17)</f>
-        <v>411027.5</v>
+        <v>512637.5</v>
       </c>
       <c r="D3" s="61">
         <f>SUM('Liquiditeitsbegroting alle part'!K17:V17)</f>
-        <v>696340</v>
+        <v>866700</v>
       </c>
       <c r="E3" s="62"/>
     </row>
@@ -15654,11 +15654,11 @@
       </c>
       <c r="C4" s="65">
         <f>SUM('Liquiditeitsbegroting met bouw7'!K19:V19)</f>
-        <v>75242.289760694708</v>
+        <v>93375.448426408620</v>
       </c>
       <c r="D4" s="65">
         <f>SUM('Liquiditeitsbegroting alle part'!K19:V19)</f>
-        <v>188153.4108658634</v>
+        <v>233484.7773102311</v>
       </c>
       <c r="E4" s="66"/>
     </row>
@@ -15668,15 +15668,15 @@
       </c>
       <c r="B5" s="68">
         <f>B3-B4</f>
-        <v>216496.25</v>
+        <v>271231.25</v>
       </c>
       <c r="C5" s="69">
         <f>C3-C4</f>
-        <v>335785.2102393053</v>
+        <v>419262.0515735914</v>
       </c>
       <c r="D5" s="69">
         <f>D3-D4</f>
-        <v>508186.5891341366</v>
+        <v>633215.2226897689</v>
       </c>
       <c r="E5" s="70"/>
     </row>
@@ -15835,15 +15835,15 @@
       </c>
       <c r="B15" s="64">
         <f>SUM('Liquiditeitsbegroting zelfstand'!K45:V45)</f>
-        <v>18684.517152412722</v>
+        <v>16910.352279582967</v>
       </c>
       <c r="C15" s="65">
         <f>SUM('Liquiditeitsbegroting met bouw7'!K44:V44)</f>
-        <v>16844.374907519428</v>
+        <v>13739.686616767360</v>
       </c>
       <c r="D15" s="65">
         <f>SUM('Liquiditeitsbegroting alle part'!K44:V44)</f>
-        <v>10428.740541943447</v>
+        <v>6208.368224736618</v>
       </c>
       <c r="E15" s="66"/>
     </row>
@@ -15889,15 +15889,15 @@
       </c>
       <c r="B18" s="68">
         <f>SUM(B7:B17)</f>
-        <v>350234.5171524127</v>
+        <v>348460.352279583</v>
       </c>
       <c r="C18" s="69">
         <f>SUM(C7:C17)</f>
-        <v>378894.3749075194</v>
+        <v>375789.6866167674</v>
       </c>
       <c r="D18" s="69">
         <f>SUM(D7:D17)</f>
-        <v>451778.7405419435</v>
+        <v>447558.3682247366</v>
       </c>
       <c r="E18" s="70"/>
     </row>
@@ -15914,15 +15914,15 @@
       </c>
       <c r="B20" s="72">
         <f>B5-B18</f>
-        <v>-133738.2671524127</v>
+        <v>-77229.102279582992</v>
       </c>
       <c r="C20" s="73">
         <f>C5-C18</f>
-        <v>-43109.164668214158</v>
+        <v>43472.364956823993</v>
       </c>
       <c r="D20" s="73">
         <f>D5-D18</f>
-        <v>56407.8485921931</v>
+        <v>185656.8544650323</v>
       </c>
       <c r="E20" s="74"/>
     </row>
